--- a/document/项目安排计划/项目预算2.0.xlsx
+++ b/document/项目安排计划/项目预算2.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\赵梓清\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A548DCD-1029-8747-A308-88EC9679CA10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目预算" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>人力成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,18 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不超过28800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>办公文品消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mac book pro 2019 16G+256SSD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>健身场地租赁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,22 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风险变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计项目报价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,14 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人员变动、需求优化及小范围变更返工控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软件成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,31 +183,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买美术设计素材（背景、字体）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>890（按年计费）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>专业书籍资料（包括纸质、电子版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thinkpad 8G+256GSSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不超过10800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计项目成本预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -502,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,70 +504,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,56 +880,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:F26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10" ht="23.25" customHeight="1" thickBot="1">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="28"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
@@ -966,52 +940,52 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:10">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>800</v>
-      </c>
-      <c r="E5" s="16">
+        <v>300</v>
+      </c>
+      <c r="E5" s="10">
         <v>5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>18</v>
       </c>
       <c r="G5" s="7">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="17"/>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>39</v>
+    <row r="7" spans="2:10">
+      <c r="B7" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -1027,29 +1001,29 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
+    <row r="8" spans="2:10">
+      <c r="B8" s="14"/>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>16699</v>
+        <v>4000</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="7">
-        <v>83495</v>
+        <v>20000</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="15"/>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>1000</v>
@@ -1065,9 +1039,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>37</v>
+    <row r="10" spans="2:10">
+      <c r="B10" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1086,8 +1060,8 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:10">
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1105,15 +1079,15 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+    <row r="12" spans="2:10">
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="15">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="17"/>
@@ -1124,15 +1098,15 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+    <row r="13" spans="2:10">
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2">
         <v>500</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="17"/>
@@ -1143,15 +1117,15 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
+    <row r="14" spans="2:10">
+      <c r="B14" s="14"/>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="15">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="17"/>
@@ -1162,15 +1136,15 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+    <row r="15" spans="2:10">
+      <c r="B15" s="15"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="17"/>
@@ -1181,9 +1155,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
-        <v>36</v>
+    <row r="16" spans="2:10">
+      <c r="B16" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1202,8 +1176,8 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+    <row r="17" spans="2:10">
+      <c r="B17" s="14"/>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1221,10 +1195,10 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
+    <row r="18" spans="2:10">
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>19</v>
@@ -1240,10 +1214,10 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+    <row r="19" spans="2:10">
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2">
         <v>50</v>
@@ -1259,13 +1233,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+    <row r="20" spans="2:10">
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
@@ -1278,13 +1252,13 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+    <row r="21" spans="2:10">
+      <c r="B21" s="14"/>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1297,13 +1271,13 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+    <row r="22" spans="2:10">
+      <c r="B22" s="14"/>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -1316,18 +1290,18 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
+    <row r="23" spans="2:10">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="3">
         <v>5400</v>
       </c>
@@ -1335,54 +1309,44 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="2" t="s">
-        <v>47</v>
+    <row r="24" spans="2:10">
+      <c r="B24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="5">
+        <v>90734</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="5" t="s">
-        <v>29</v>
-      </c>
+    <row r="25" spans="2:10">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="5" t="s">
-        <v>49</v>
-      </c>
+    <row r="26" spans="2:10">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1393,36 +1357,8 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B15"/>
+  <mergeCells count="13">
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F23"/>
     <mergeCell ref="B5:B6"/>
@@ -1432,6 +1368,10 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
